--- a/6-Casos_de_prueba/Casos_de_Prueba.xlsx
+++ b/6-Casos_de_prueba/Casos_de_Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\6-Casos_de_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5BE30F-5021-4079-AB9A-EC55761556B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5024A66B-7382-4103-85D7-3313C086D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Prueba" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Fallido</t>
   </si>
@@ -158,9 +158,6 @@
     <t>- Se deben visualizar las diferentes cursos asociados dependiendo del flujo de búsqueda</t>
   </si>
   <si>
-    <t>Es posible realizar la operación de búsqueda con información vacia en el campo.</t>
-  </si>
-  <si>
     <t>No se muestra un mensaje que evidencie la existencia de cursos.</t>
   </si>
   <si>
@@ -205,13 +202,53 @@
   </si>
   <si>
     <t>- Se muestra un mensaje de error indicando que no existen resultados de acuerdo con el filtro seleccionado.</t>
+  </si>
+  <si>
+    <t>Andrés López</t>
+  </si>
+  <si>
+    <t>Christian Aya
+Andrés López</t>
+  </si>
+  <si>
+    <t>Camila Jiménez</t>
+  </si>
+  <si>
+    <t>Andrés López
+Camila Jiménez</t>
+  </si>
+  <si>
+    <t>Es posible navegar a la página de búsqueda con información vacia en el campo de texto.</t>
+  </si>
+  <si>
+    <t>CP-007</t>
+  </si>
+  <si>
+    <t>- Ingresar una palabra con una combinación de caracteres especiales.
+- Presionar tecla enter o dar clic en el botón "Ir"</t>
+  </si>
+  <si>
+    <t>- Se muestras un mensaje indicando que no se puede realizar la búsqueda</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Nombre Usuario
+Contraseña</t>
+  </si>
+  <si>
+    <t>No ingresar información en el campo</t>
+  </si>
+  <si>
+    <t>""!$%&amp;/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +293,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -329,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,6 +442,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F57EFD-716D-4851-AB69-26C38E7BDA22}">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -726,21 +775,22 @@
     <col min="2" max="2" width="22.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" style="1" customWidth="1"/>
-    <col min="14" max="32" width="8.85546875" style="1"/>
-    <col min="33" max="33" width="14.42578125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" style="1" customWidth="1"/>
+    <col min="15" max="33" width="8.85546875" style="1"/>
+    <col min="34" max="34" width="14.42578125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -754,36 +804,39 @@
         <v>6</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>19</v>
@@ -794,75 +847,81 @@
       <c r="D2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="H2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="15">
         <v>44971</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="15">
         <v>44971</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AH3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>19</v>
@@ -874,33 +933,36 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="15">
         <v>44971</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="AG4" s="3" t="s">
+      <c r="N4" s="16"/>
+      <c r="AH4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>19</v>
@@ -912,150 +974,202 @@
         <v>2</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="15">
         <v>44971</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="3" t="s">
+      <c r="N5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="15">
         <v>44971</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG6" s="3" t="s">
+      <c r="N6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="15">
-        <v>44971</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13"/>
+      <c r="I7" s="15">
+        <v>44973</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG7" s="3"/>
+      <c r="N7" s="16"/>
+      <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="15">
+        <v>44971</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="H9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="15">
         <v>44971</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="AG8" s="3"/>
+      <c r="N9" s="16"/>
+      <c r="AH9" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8 L2:L8" xr:uid="{90787EA8-E344-4B28-964E-A400A448ADF5}">
-      <formula1>$AG$3:$AG$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 M2:M9" xr:uid="{90787EA8-E344-4B28-964E-A400A448ADF5}">
+      <formula1>$AH$3:$AH$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-Casos_de_prueba/Casos_de_Prueba.xlsx
+++ b/6-Casos_de_prueba/Casos_de_Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Choucair\Capacitación\Plan_2\Ejercicio Práctico\6-Casos_de_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5024A66B-7382-4103-85D7-3313C086D4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D195F5-9AF7-47F4-95CA-46EF1C28B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
